--- a/biology/Médecine/Plaque_occlusale_transparente/Plaque_occlusale_transparente.xlsx
+++ b/biology/Médecine/Plaque_occlusale_transparente/Plaque_occlusale_transparente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plaque occlusale transparente, ou gouttière occlusale transparente[1],[2], ou appareil dentaire invisible[3], est une plaque occlusale utilisée en orthodontie « invisible » comme traitement pour aligner les dents. C'est une alternative aux bagues dentaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plaque occlusale transparente, ou gouttière occlusale transparente ou appareil dentaire invisible, est une plaque occlusale utilisée en orthodontie « invisible » comme traitement pour aligner les dents. C'est une alternative aux bagues dentaires.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs entreprises produisent des plaques occlusales transparentes : Orthoclear, Align-Technology avec Invisalign[2],[3], ClearCorrect, Deep Company avec DEEP ALigneurs ainsi que les prothésistes dentaire spécialisés en orthodontie.
-En 2015, le leader sur le marché est Invisalign[2].
-En France en 2017, le leader sur le marché est Biotech Dental[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs entreprises produisent des plaques occlusales transparentes : Orthoclear, Align-Technology avec Invisalign ClearCorrect, Deep Company avec DEEP ALigneurs ainsi que les prothésistes dentaire spécialisés en orthodontie.
+En 2015, le leader sur le marché est Invisalign.
+En France en 2017, le leader sur le marché est Biotech Dental.
 </t>
         </is>
       </c>
